--- a/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f710_bc_tinh_hinh_VPP_theo_phong_ban.xlsx
+++ b/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f710_bc_tinh_hinh_VPP_theo_phong_ban.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>STT</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>BÁO CÁO TÌNH HÌNH VPP THEO PHÒNG BAN</t>
+  </si>
+  <si>
+    <t>Tổng tiền đề xuất</t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J349"/>
+  <dimension ref="A1:K349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,27 +588,27 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.42578125" customWidth="1"/>
     <col min="4" max="4" width="26" style="16" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="23" style="9" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="5" max="6" width="25.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>10</v>
       </c>
@@ -615,11 +618,12 @@
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
@@ -629,19 +633,20 @@
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -658,67 +663,70 @@
         <v>5</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="20"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="20"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="20"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="20"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="20"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="20"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1724,8 +1732,8 @@
   <mergeCells count="4">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
